--- a/data_year/zb/城市概况/城市建设.xlsx
+++ b/data_year/zb/城市概况/城市建设.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,360 +463,254 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>178691.73</v>
+      </c>
       <c r="C2" t="n">
-        <v>865</v>
+        <v>2209</v>
       </c>
       <c r="D2" t="n">
-        <v>30781.28</v>
+        <v>39758.42</v>
       </c>
       <c r="E2" t="n">
-        <v>30406.19</v>
+        <v>40058.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1612.56</v>
+        <v>1641.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>183618.02</v>
+      </c>
       <c r="C3" t="n">
-        <v>870.204448883514</v>
+        <v>2228</v>
       </c>
       <c r="D3" t="n">
-        <v>29636.83</v>
+        <v>41860.61</v>
       </c>
       <c r="E3" t="n">
-        <v>32520.72</v>
+        <v>43603.23</v>
       </c>
       <c r="F3" t="n">
-        <v>1263.5</v>
+        <v>1841.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>183039.42</v>
+      </c>
       <c r="C4" t="n">
-        <v>2238.15254959798</v>
+        <v>2307</v>
       </c>
       <c r="D4" t="n">
-        <v>31765.7</v>
+        <v>45750.67</v>
       </c>
       <c r="E4" t="n">
-        <v>33659.8</v>
+        <v>45565.76</v>
       </c>
       <c r="F4" t="n">
-        <v>1396.48</v>
+        <v>2161.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>183416.05</v>
+      </c>
       <c r="C5" t="n">
-        <v>2104</v>
+        <v>2362</v>
       </c>
       <c r="D5" t="n">
-        <v>36351.65</v>
+        <v>47108.5</v>
       </c>
       <c r="E5" t="n">
-        <v>35469.65</v>
+        <v>47855.28</v>
       </c>
       <c r="F5" t="n">
-        <v>1216.03</v>
+        <v>1831.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178110.28</v>
+        <v>184098.59</v>
       </c>
       <c r="C6" t="n">
-        <v>2080</v>
+        <v>2419</v>
       </c>
       <c r="D6" t="n">
-        <v>39140.46</v>
+        <v>49982.74</v>
       </c>
       <c r="E6" t="n">
-        <v>36295.3</v>
+        <v>49772.63</v>
       </c>
       <c r="F6" t="n">
-        <v>1344.58</v>
+        <v>1475.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175463.61</v>
+        <v>191775.54</v>
       </c>
       <c r="C7" t="n">
-        <v>2147</v>
+        <v>2399</v>
       </c>
       <c r="D7" t="n">
-        <v>38726.92</v>
+        <v>51584.1</v>
       </c>
       <c r="E7" t="n">
-        <v>38107.26</v>
+        <v>52102.31</v>
       </c>
       <c r="F7" t="n">
-        <v>1504.69</v>
+        <v>1548.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178691.73</v>
+        <v>198178.59</v>
       </c>
       <c r="C8" t="n">
-        <v>2209</v>
+        <v>2408</v>
       </c>
       <c r="D8" t="n">
-        <v>39758.42</v>
+        <v>52761.3</v>
       </c>
       <c r="E8" t="n">
-        <v>40058.01</v>
+        <v>54331.47</v>
       </c>
       <c r="F8" t="n">
-        <v>1641.57</v>
+        <v>1713.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>183618.02</v>
+        <v>198357.17</v>
       </c>
       <c r="C9" t="n">
-        <v>2228</v>
+        <v>2477</v>
       </c>
       <c r="D9" t="n">
-        <v>41860.61</v>
+        <v>55155.47</v>
       </c>
       <c r="E9" t="n">
-        <v>43603.23</v>
+        <v>56225.38</v>
       </c>
       <c r="F9" t="n">
-        <v>1841.72</v>
+        <v>1934.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183039.42</v>
+        <v>200896.5</v>
       </c>
       <c r="C10" t="n">
-        <v>2307</v>
+        <v>2546.17278051136</v>
       </c>
       <c r="D10" t="n">
-        <v>45750.67</v>
+        <v>56075.9</v>
       </c>
       <c r="E10" t="n">
-        <v>45565.76</v>
+        <v>58455.66</v>
       </c>
       <c r="F10" t="n">
-        <v>2161.48</v>
+        <v>2003.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183416.05</v>
+        <v>200569.51</v>
       </c>
       <c r="C11" t="n">
-        <v>2362</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47108.5</v>
-      </c>
+        <v>2613.33838827247</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>47855.28</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1831.57</v>
-      </c>
+        <v>60312.45</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184098.59</v>
+        <v>186628.87</v>
       </c>
       <c r="C12" t="n">
-        <v>2419</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49982.74</v>
-      </c>
+        <v>2778</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>49772.63</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1475.88</v>
-      </c>
+        <v>60721.32</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191775.54</v>
+        <v>188300.45</v>
       </c>
       <c r="C13" t="n">
-        <v>2399</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51584.1</v>
-      </c>
+        <v>2868.39</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>52102.31</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1548.53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>198178.59</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2408</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52761.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>54331.47</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1713.62</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>198357.17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2477</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55155.47</v>
-      </c>
-      <c r="E15" t="n">
-        <v>56225.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1934.37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>200896.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2546.17278051136</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56075.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>58455.66</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2003.66</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>200569.51</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2613.33838827247</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>60312.45</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>186628.87</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2778</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>60721.32</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>62420.53</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
